--- a/docs/Examples/Other_Useful_Functions/Sulfur_Conversions.xlsx
+++ b/docs/Examples/Other_Useful_Functions/Sulfur_Conversions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Berkeley_NEW\PySulfSat\PySulfSat_Structure\docs\Examples\Other_Useful_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDA5023-F4EB-4D75-91FF-955191119859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1400FF5A-080F-4E92-A8B2-1603D261E7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{7C4BA5A8-4929-4B9C-91C9-893AF392FC0A}"/>
   </bookViews>
@@ -707,7 +707,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="123" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
